--- a/InputData/elec/STfESCE/STfESCE Smoothing Time for Electricity Sector Capital Expenditures.xlsx
+++ b/InputData/elec/STfESCE/STfESCE Smoothing Time for Electricity Sector Capital Expenditures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\STfESCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9477FD8-0DC2-4504-B0CB-8ECA0847EF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AACA472-9A57-4B97-8AEB-060957311C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="450" windowWidth="33855" windowHeight="21540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="795" windowWidth="33855" windowHeight="21540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
